--- a/xlsx/资源_intext.xlsx
+++ b/xlsx/资源_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E7%89%A9</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E8%A6%8F%E7%AF%84</t>
   </si>
   <si>
-    <t>道德規範</t>
+    <t>道德规范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90%E5%88%86%E9%85%8D</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>生態學家</t>
+    <t>生态学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%B6%E9%A0%B8</t>
   </si>
   <si>
-    <t>瓶頸</t>
+    <t>瓶颈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Supply_shock</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E9%9B%9C%E6%80%A7</t>
   </si>
   <si>
-    <t>複雜性</t>
+    <t>复杂性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%8E%AF%E5%A2%83</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E9%9C%A7</t>
   </si>
   <si>
-    <t>煙霧</t>
+    <t>烟雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -539,25 +539,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E8%A9%9B%E5%92%92</t>
   </si>
   <si>
-    <t>資源詛咒</t>
+    <t>资源诅咒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/资源_intext.xlsx
+++ b/xlsx/资源_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中国</t>
   </si>
   <si>
-    <t>政策_政策_管理_资源</t>
+    <t>体育运动_体育运动_竞争_资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E8%A5%BF%E5%A3%AE%E6%97%8F%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
